--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43209,6 +43209,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>180400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43244,6 +43244,41 @@
         <v>180400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>114200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43279,6 +43279,41 @@
         <v>114200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>720800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43314,6 +43314,41 @@
         <v>720800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>32100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43349,6 +43349,41 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>463300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43384,6 +43384,41 @@
         <v>463300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>109200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43419,6 +43419,41 @@
         <v>109200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43454,6 +43454,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>59500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43489,6 +43489,41 @@
         <v>59500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>75100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43524,6 +43524,41 @@
         <v>75100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,41 @@
         <v>101000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>71000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43594,6 +43594,41 @@
         <v>71000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,76 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>618200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,78 @@
         <v>618200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>241000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,41 @@
         <v>241000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>36900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>36900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>63300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,43 @@
         <v>63300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>714000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43913,6 +43913,76 @@
         <v>714000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43983,6 +43983,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>263500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44018,6 +44018,41 @@
         <v>263500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>544700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82798,6 +82798,41 @@
         <v>544700</v>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>428900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82833,6 +82833,43 @@
         <v>428900</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2350" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82870,6 +82870,43 @@
         </is>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2351" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82907,6 +82907,41 @@
         </is>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>366200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82942,6 +82942,41 @@
         <v>366200</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>86300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82977,6 +82977,41 @@
         <v>86300</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83012,6 +83012,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>221400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83047,6 +83047,41 @@
         <v>221400</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>662000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83082,6 +83082,41 @@
         <v>662000</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>109000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83117,6 +83117,41 @@
         <v>109000</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>314200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83152,6 +83152,41 @@
         <v>314200</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>382300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83187,6 +83187,41 @@
         <v>382300</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>1338000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83222,6 +83222,41 @@
         <v>1338000</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>781800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83257,6 +83257,41 @@
         <v>781800</v>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>1148600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83292,6 +83292,41 @@
         <v>1148600</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>711800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2770"/>
+  <dimension ref="A1:I2771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97572,6 +97572,41 @@
         <v>711800</v>
       </c>
     </row>
+    <row r="2771">
+      <c r="A2771" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2771" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2771" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2771" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2771" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2771" t="n">
+        <v>756200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2771"/>
+  <dimension ref="A1:I2772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97607,6 +97607,41 @@
         <v>756200</v>
       </c>
     </row>
+    <row r="2772">
+      <c r="A2772" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2772" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2772" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2772" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2772" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2772" t="n">
+        <v>3771300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2772"/>
+  <dimension ref="A1:I2773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97642,6 +97642,41 @@
         <v>3771300</v>
       </c>
     </row>
+    <row r="2773">
+      <c r="A2773" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2773" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2773" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2773" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2773" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2773" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2773" t="n">
+        <v>1795600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2773"/>
+  <dimension ref="A1:I2774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97677,6 +97677,41 @@
         <v>1795600</v>
       </c>
     </row>
+    <row r="2774">
+      <c r="A2774" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2774" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2774" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2774" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2774" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2774" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2774" t="n">
+        <v>11821800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2774"/>
+  <dimension ref="A1:I2775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97712,6 +97712,41 @@
         <v>11821800</v>
       </c>
     </row>
+    <row r="2775">
+      <c r="A2775" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2775" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2775" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2775" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2775" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2775" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2775" t="n">
+        <v>9654100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2775"/>
+  <dimension ref="A1:I2776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97747,6 +97747,41 @@
         <v>9654100</v>
       </c>
     </row>
+    <row r="2776">
+      <c r="A2776" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2776" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2776" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2776" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2776" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2776" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2776" t="n">
+        <v>1740600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2776"/>
+  <dimension ref="A1:I2777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97782,6 +97782,41 @@
         <v>1740600</v>
       </c>
     </row>
+    <row r="2777">
+      <c r="A2777" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2777" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2777" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2777" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2777" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2777" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2777" t="n">
+        <v>3573700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2777"/>
+  <dimension ref="A1:I2778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97817,6 +97817,41 @@
         <v>3573700</v>
       </c>
     </row>
+    <row r="2778">
+      <c r="A2778" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2778" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2778" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2778" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2778" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2778" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2778" t="n">
+        <v>1544700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2778"/>
+  <dimension ref="A1:I2779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97852,6 +97852,41 @@
         <v>1544700</v>
       </c>
     </row>
+    <row r="2779">
+      <c r="A2779" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2779" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2779" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2779" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2779" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2779" t="n">
+        <v>1149800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2779"/>
+  <dimension ref="A1:I2780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97887,6 +97887,41 @@
         <v>1149800</v>
       </c>
     </row>
+    <row r="2780">
+      <c r="A2780" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2780" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2780" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2780" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2780" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2780" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2780" t="n">
+        <v>864000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2780"/>
+  <dimension ref="A1:I2782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97922,6 +97922,76 @@
         <v>864000</v>
       </c>
     </row>
+    <row r="2781">
+      <c r="A2781" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2781" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2781" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2781" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2781" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2781" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2781" t="n">
+        <v>784800</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2782" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2782" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2782" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2782" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2782" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2782" t="n">
+        <v>1731000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2782"/>
+  <dimension ref="A1:I2783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97992,6 +97992,41 @@
         <v>1731000</v>
       </c>
     </row>
+    <row r="2783">
+      <c r="A2783" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2783" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2783" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2783" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2783" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2783" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2783" t="n">
+        <v>1279600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2783"/>
+  <dimension ref="A1:I2786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98027,6 +98027,111 @@
         <v>1279600</v>
       </c>
     </row>
+    <row r="2784">
+      <c r="A2784" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2784" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2784" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2784" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2784" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2784" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2784" t="n">
+        <v>1651600</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2785" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2785" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2785" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2785" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2785" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2785" t="n">
+        <v>13369500</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2786" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2786" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2786" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2786" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2786" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2786" t="n">
+        <v>10926200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2786"/>
+  <dimension ref="A1:I2787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98132,6 +98132,41 @@
         <v>10926200</v>
       </c>
     </row>
+    <row r="2787">
+      <c r="A2787" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2787" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2787" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2787" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2787" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2787" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2787" t="n">
+        <v>6337000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2787"/>
+  <dimension ref="A1:I2788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98167,6 +98167,41 @@
         <v>6337000</v>
       </c>
     </row>
+    <row r="2788">
+      <c r="A2788" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2788" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2788" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2788" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2788" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2788" t="n">
+        <v>4004800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0136.xlsx
+++ b/data/0136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2788"/>
+  <dimension ref="A1:I2791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98202,6 +98202,111 @@
         <v>4004800</v>
       </c>
     </row>
+    <row r="2789">
+      <c r="A2789" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2789" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2789" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2789" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2789" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2789" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2789" t="n">
+        <v>1968700</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2790" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2790" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2790" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2790" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2790" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2790" t="n">
+        <v>997100</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr">
+        <is>
+          <t>GREENYB</t>
+        </is>
+      </c>
+      <c r="E2791" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2791" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2791" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2791" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2791" t="n">
+        <v>5067100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
